--- a/biology/Zoologie/Agama_tassiliensis/Agama_tassiliensis.xlsx
+++ b/biology/Zoologie/Agama_tassiliensis/Agama_tassiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama tassiliensis est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama tassiliensis est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie dans le Tassili n'Ajjer et le Hoggar, en Libye dans le Tadrart Acacus, au Niger dans le massif de l'Aïr et au Mali dans l'Adrar des Ifoghas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie dans le Tassili n'Ajjer et le Hoggar, en Libye dans le Tadrart Acacus, au Niger dans le massif de l'Aïr et au Mali dans l'Adrar des Ifoghas.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de tassili et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Tassili n'Ajjer.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Geniez, Padial &amp; Crochet, 2011 : Systematics of north African Agama (Reptilia: Agamidae): a new species from the central Saharan mountains. Zootaxa, no 3098, p. 26–46.</t>
         </is>
